--- a/tests/artefacts/api/exports/import_template_disbursements.xlsx
+++ b/tests/artefacts/api/exports/import_template_disbursements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mark/sites/odi/liberia/aims/tests/artefacts/api/exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D0C09A-FB7A-8845-AF2C-036A183F5F21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F3784D-E10B-C445-B088-B0375A257CAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Instructions</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>2019 Q2 (D)</t>
+  </si>
+  <si>
+    <t>FY2019 Q2 (D)</t>
   </si>
 </sst>
 </file>
@@ -759,7 +762,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -780,7 +783,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>15</v>
